--- a/lists/trials.xlsx
+++ b/lists/trials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t xml:space="preserve">I</t>
   </si>
@@ -31,16 +31,310 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
-    <t xml:space="preserve">face.jpg</t>
+    <t xml:space="preserve">face00.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">face</t>
   </si>
   <si>
-    <t xml:space="preserve">object.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object</t>
+    <t xml:space="preserve">face01.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face02.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face03.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face04.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face05.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face06.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face07.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face08.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face09.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_096_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_097_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_098_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_099_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_100_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_101_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_102_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_103_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_104_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_105_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_106_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_107_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_108_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_109_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_110_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_111_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_112_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_113_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_114_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_115_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_116_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_117_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_118_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_119_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_120_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_121_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_122_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_123_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_124_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_125_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_126_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_127_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_128_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_129_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_130_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_131_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_132_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_133_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_134_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_135_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_136_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_137_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_138_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_139_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_140_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_141_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_142_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_143_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_144_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_145_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_146_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_147_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_148_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_149_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_150_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_151_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_152_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_153_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_154_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_155_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_156_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_157_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_158_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_159_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_160_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_161_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_162_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_163_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_164_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_165_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_166_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_167_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_168_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_169_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_170_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_171_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_172_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_173_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_174_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_175_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_176_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_177_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_178_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_179_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_180_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_181_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_182_v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_183_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_184_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscapes_185_v.jpg</t>
   </si>
 </sst>
 </file>
@@ -144,10 +438,13 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -176,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -187,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
@@ -198,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -209,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
@@ -220,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -231,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -242,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -253,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -264,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -275,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,10 +1551,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
